--- a/Словарь БД.xlsx
+++ b/Словарь БД.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20827"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB8188BD-B4C1-4078-A56E-E98AF66F701E}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DA52728-FC51-4D34-BF1C-31DBC3AAC7C4}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,16 +20,184 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="643" uniqueCount="57">
   <si>
     <t>Словарь БД</t>
+  </si>
+  <si>
+    <t>Country</t>
+  </si>
+  <si>
+    <t>Ключ</t>
+  </si>
+  <si>
+    <t>Название поля</t>
+  </si>
+  <si>
+    <t>Тип данных</t>
+  </si>
+  <si>
+    <t>комментарий</t>
+  </si>
+  <si>
+    <t>PK</t>
+  </si>
+  <si>
+    <t>nvarchar(50)</t>
+  </si>
+  <si>
+    <t>NameRU</t>
+  </si>
+  <si>
+    <t>NameEN</t>
+  </si>
+  <si>
+    <t>Code1</t>
+  </si>
+  <si>
+    <t>Code2</t>
+  </si>
+  <si>
+    <t>int</t>
+  </si>
+  <si>
+    <t>требуется</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>nvarchar(3)</t>
+  </si>
+  <si>
+    <t>буквенный код страны</t>
+  </si>
+  <si>
+    <t>цифровой код страны</t>
+  </si>
+  <si>
+    <t>Jury</t>
+  </si>
+  <si>
+    <t>Email</t>
+  </si>
+  <si>
+    <t>DateBirthday</t>
+  </si>
+  <si>
+    <t>Checked</t>
+  </si>
+  <si>
+    <t>Phone</t>
+  </si>
+  <si>
+    <t>nvarchar(20)</t>
+  </si>
+  <si>
+    <t>DirectionId</t>
+  </si>
+  <si>
+    <t>Password</t>
+  </si>
+  <si>
+    <t>Photo</t>
+  </si>
+  <si>
+    <t>nvarchar(10)</t>
+  </si>
+  <si>
+    <t>Unchecked</t>
+  </si>
+  <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t>City</t>
+  </si>
+  <si>
+    <t>nchar(10)</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Название города</t>
+  </si>
+  <si>
+    <t>Название фотографий</t>
+  </si>
+  <si>
+    <t>CountryId</t>
+  </si>
+  <si>
+    <t>Название страны на русском языке</t>
+  </si>
+  <si>
+    <t>Название страны на английском языке</t>
+  </si>
+  <si>
+    <t>Direction</t>
+  </si>
+  <si>
+    <t>EventPlan</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>Days</t>
+  </si>
+  <si>
+    <t>CityId</t>
+  </si>
+  <si>
+    <t>nvarchar(100)</t>
+  </si>
+  <si>
+    <t>Event</t>
+  </si>
+  <si>
+    <t>nvarchar(30)</t>
+  </si>
+  <si>
+    <t>Moderator</t>
+  </si>
+  <si>
+    <t>FIO</t>
+  </si>
+  <si>
+    <t>Gender</t>
+  </si>
+  <si>
+    <t>nvarchar(1)</t>
+  </si>
+  <si>
+    <t>EventId</t>
+  </si>
+  <si>
+    <t>Пол человека "м" или "ж"</t>
+  </si>
+  <si>
+    <t>Идентификатор города</t>
+  </si>
+  <si>
+    <t>Идентификатор мероприятия</t>
+  </si>
+  <si>
+    <t>Идентификатор страны</t>
+  </si>
+  <si>
+    <t>Идентификатор направления</t>
+  </si>
+  <si>
+    <t>Organizer</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -37,13 +205,34 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -73,11 +262,19 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -358,31 +555,941 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:D4"/>
+  <dimension ref="B2:F80"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4:D4"/>
+    <sheetView tabSelected="1" topLeftCell="A55" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B73" sqref="B73:F80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="3" max="3" width="14" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.21875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.77734375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="35.33203125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="2" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B2" s="1" t="s">
+    <row r="2" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-    </row>
-    <row r="4" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+    </row>
+    <row r="4" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B4" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
+    </row>
+    <row r="5" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B5" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B6" s="1"/>
+      <c r="C6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B7" s="1"/>
+      <c r="C7" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="8" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B8" s="1"/>
+      <c r="C8" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B9" s="1"/>
+      <c r="C9" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B10" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F10" s="1"/>
+    </row>
+    <row r="12" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B12" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C12" s="5"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="5"/>
+    </row>
+    <row r="13" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B13" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="E13" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F13" s="6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B14" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F14" s="1"/>
+    </row>
+    <row r="15" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B15" s="1"/>
+      <c r="C15" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F15" s="1"/>
+    </row>
+    <row r="16" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B16" s="1"/>
+      <c r="C16" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F16" s="1"/>
+    </row>
+    <row r="17" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B17" s="1"/>
+      <c r="C17" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B18" s="1"/>
+      <c r="C18" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F18" s="1"/>
+    </row>
+    <row r="19" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B19" s="1"/>
+      <c r="C19" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="20" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B20" s="1"/>
+      <c r="C20" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F20" s="1"/>
+    </row>
+    <row r="21" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B21" s="1"/>
+      <c r="C21" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="23" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B23" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C23" s="5"/>
+      <c r="D23" s="5"/>
+      <c r="E23" s="5"/>
+      <c r="F23" s="5"/>
+    </row>
+    <row r="24" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B24" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C24" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D24" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="E24" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F24" s="6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B25" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F25" s="1"/>
+    </row>
+    <row r="26" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B26" s="1"/>
+      <c r="C26" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="27" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B27" s="1"/>
+      <c r="C27" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="29" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B29" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C29" s="5"/>
+      <c r="D29" s="5"/>
+      <c r="E29" s="5"/>
+      <c r="F29" s="5"/>
+    </row>
+    <row r="30" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B30" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C30" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D30" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="E30" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F30" s="6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="31" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B31" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F31" s="1"/>
+    </row>
+    <row r="32" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B32" s="1"/>
+      <c r="C32" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F32" s="1"/>
+    </row>
+    <row r="34" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B34" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="C34" s="5"/>
+      <c r="D34" s="5"/>
+      <c r="E34" s="5"/>
+      <c r="F34" s="5"/>
+    </row>
+    <row r="35" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B35" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C35" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D35" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="E35" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F35" s="6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="36" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B36" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F36" s="1"/>
+    </row>
+    <row r="37" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B37" s="1"/>
+      <c r="C37" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F37" s="1"/>
+    </row>
+    <row r="38" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B38" s="1"/>
+      <c r="C38" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F38" s="1"/>
+    </row>
+    <row r="39" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B39" s="1"/>
+      <c r="C39" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F39" s="1"/>
+    </row>
+    <row r="40" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B40" s="1"/>
+      <c r="C40" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F40" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="42" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B42" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="C42" s="5"/>
+      <c r="D42" s="5"/>
+      <c r="E42" s="5"/>
+      <c r="F42" s="5"/>
+    </row>
+    <row r="43" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B43" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C43" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D43" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="E43" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F43" s="6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="44" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B44" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F44" s="1"/>
+    </row>
+    <row r="45" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B45" s="1"/>
+      <c r="C45" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F45" s="1"/>
+    </row>
+    <row r="47" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B47" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="C47" s="5"/>
+      <c r="D47" s="5"/>
+      <c r="E47" s="5"/>
+      <c r="F47" s="5"/>
+    </row>
+    <row r="48" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B48" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C48" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D48" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="E48" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F48" s="6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="49" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B49" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E49" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F49" s="1"/>
+    </row>
+    <row r="50" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B50" s="1"/>
+      <c r="C50" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E50" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F50" s="1"/>
+    </row>
+    <row r="51" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B51" s="1"/>
+      <c r="C51" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E51" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F51" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="52" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B52" s="1"/>
+      <c r="C52" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E52" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F52" s="1"/>
+    </row>
+    <row r="53" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B53" s="1"/>
+      <c r="C53" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E53" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F53" s="1"/>
+    </row>
+    <row r="54" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B54" s="1"/>
+      <c r="C54" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D54" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E54" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F54" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="55" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B55" s="1"/>
+      <c r="C55" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D55" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E55" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F55" s="1"/>
+    </row>
+    <row r="56" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B56" s="1"/>
+      <c r="C56" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D56" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E56" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F56" s="1"/>
+    </row>
+    <row r="57" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B57" s="1"/>
+      <c r="C57" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D57" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E57" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F57" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="58" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B58" s="1"/>
+      <c r="C58" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D58" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E58" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F58" s="1"/>
+    </row>
+    <row r="59" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B59" s="1"/>
+      <c r="C59" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D59" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E59" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F59" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="61" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B61" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="C61" s="5"/>
+      <c r="D61" s="5"/>
+      <c r="E61" s="5"/>
+      <c r="F61" s="5"/>
+    </row>
+    <row r="62" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B62" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C62" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D62" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="E62" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F62" s="6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="63" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B63" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D63" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E63" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F63" s="1"/>
+    </row>
+    <row r="64" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B64" s="1"/>
+      <c r="C64" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D64" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E64" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F64" s="1"/>
+    </row>
+    <row r="65" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B65" s="1"/>
+      <c r="C65" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D65" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E65" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F65" s="1"/>
+    </row>
+    <row r="66" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B66" s="1"/>
+      <c r="C66" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D66" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E66" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F66" s="1"/>
+    </row>
+    <row r="67" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B67" s="1"/>
+      <c r="C67" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D67" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E67" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F67" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="68" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B68" s="1"/>
+      <c r="C68" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D68" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E68" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F68" s="1"/>
+    </row>
+    <row r="69" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B69" s="1"/>
+      <c r="C69" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D69" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E69" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F69" s="1"/>
+    </row>
+    <row r="70" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B70" s="1"/>
+      <c r="C70" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D70" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E70" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F70" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="71" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B71" s="1"/>
+      <c r="C71" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D71" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E71" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F71" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="73" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B73" s="7"/>
+      <c r="C73" s="7"/>
+      <c r="D73" s="7"/>
+      <c r="E73" s="7"/>
+      <c r="F73" s="7"/>
+    </row>
+    <row r="74" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B74" s="4"/>
+      <c r="C74" s="4"/>
+      <c r="D74" s="4"/>
+      <c r="E74" s="4"/>
+      <c r="F74" s="4"/>
+    </row>
+    <row r="75" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B75" s="4"/>
+      <c r="C75" s="4"/>
+      <c r="D75" s="4"/>
+      <c r="E75" s="4"/>
+      <c r="F75" s="4"/>
+    </row>
+    <row r="76" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B76" s="4"/>
+      <c r="C76" s="4"/>
+      <c r="D76" s="4"/>
+      <c r="E76" s="4"/>
+      <c r="F76" s="4"/>
+    </row>
+    <row r="77" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B77" s="4"/>
+      <c r="C77" s="4"/>
+      <c r="D77" s="4"/>
+      <c r="E77" s="4"/>
+      <c r="F77" s="4"/>
+    </row>
+    <row r="78" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B78" s="4"/>
+      <c r="C78" s="4"/>
+      <c r="D78" s="4"/>
+      <c r="E78" s="4"/>
+      <c r="F78" s="4"/>
+    </row>
+    <row r="79" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B79" s="4"/>
+      <c r="C79" s="4"/>
+      <c r="D79" s="4"/>
+      <c r="E79" s="4"/>
+      <c r="F79" s="4"/>
+    </row>
+    <row r="80" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B80" s="4"/>
+      <c r="C80" s="4"/>
+      <c r="D80" s="4"/>
+      <c r="E80" s="4"/>
+      <c r="F80" s="4"/>
     </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="B2:D2"/>
-    <mergeCell ref="B4:D4"/>
+  <mergeCells count="9">
+    <mergeCell ref="B47:F47"/>
+    <mergeCell ref="B61:F61"/>
+    <mergeCell ref="B12:F12"/>
+    <mergeCell ref="B23:F23"/>
+    <mergeCell ref="B29:F29"/>
+    <mergeCell ref="B34:F34"/>
+    <mergeCell ref="B42:F42"/>
+    <mergeCell ref="B4:F4"/>
+    <mergeCell ref="B2:F2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>